--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA2C3C1-726D-4C27-9CF3-51324116623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934728D-D028-444D-9C60-BA504A166CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23520" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
+    <workbookView xWindow="-23520" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Largest_cities" sheetId="1" r:id="rId1"/>
@@ -7984,8 +7984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8098,7 +8098,7 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -8150,7 +8150,7 @@
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -8220,7 +8220,7 @@
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -8416,7 +8416,7 @@
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="7" t="s">

--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934728D-D028-444D-9C60-BA504A166CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D120F79-18CE-4AE5-866C-5F96C6AC616F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23520" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
@@ -7984,7 +7984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D120F79-18CE-4AE5-866C-5F96C6AC616F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DA8141-EF6A-4356-AC53-36B2A10EBCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23520" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
+    <workbookView xWindow="-14850" yWindow="6990" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Largest_cities" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +813,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,6 +896,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7984,8 +7991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8028,7 +8035,7 @@
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -8070,7 +8077,7 @@
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -8112,7 +8119,7 @@
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -8126,7 +8133,7 @@
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">

--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B464385F-D815-4533-9B06-A65189821590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46DBFB-A797-41AE-92DA-47F9686DC584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18075" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
+    <workbookView xWindow="-38280" yWindow="9270" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Largest_cities" sheetId="1" r:id="rId1"/>
@@ -8015,8 +8015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8367,7 +8367,7 @@
       <c r="A25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -8395,7 +8395,7 @@
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -8423,7 +8423,7 @@
       <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -8451,7 +8451,7 @@
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="6" t="s">

--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF46DBFB-A797-41AE-92DA-47F9686DC584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04262DFA-6170-43C1-982A-78AAF666ECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38280" yWindow="9270" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
+    <workbookView xWindow="-11910" yWindow="5010" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Largest_cities" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="220">
   <si>
     <t> Alabama</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>Northside</t>
+  </si>
+  <si>
+    <t>* Only downloaded a portion - need to implement limits, and a resume function to complete!</t>
   </si>
 </sst>
 </file>
@@ -8013,10 +8016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8251,7 +8254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -8293,7 +8296,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -8307,7 +8310,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
@@ -8363,7 +8366,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>90</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
@@ -8391,7 +8394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -8405,7 +8408,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -8419,7 +8422,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
@@ -8433,11 +8436,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -8446,8 +8449,19 @@
       <c r="D30" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="E30" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -8461,11 +8475,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -8479,7 +8493,7 @@
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -8493,7 +8507,7 @@
       <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="6" t="s">

--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04262DFA-6170-43C1-982A-78AAF666ECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2599BF4D-BB0C-424B-96D2-49120F07629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11910" yWindow="5010" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
+    <workbookView xWindow="-23490" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Largest_cities" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="220">
   <si>
     <t> Alabama</t>
   </si>
@@ -889,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -924,6 +924,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8018,8 +8019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8489,7 +8490,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>40</v>
       </c>
@@ -8503,7 +8504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>101</v>
       </c>
@@ -8531,11 +8532,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -8545,11 +8546,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -8559,7 +8560,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>42</v>
       </c>
@@ -8573,11 +8574,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -8586,8 +8587,19 @@
       <c r="D39" s="12" t="s">
         <v>155</v>
       </c>
+      <c r="E39" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>64</v>
       </c>
@@ -8601,7 +8613,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>75</v>
       </c>
@@ -8615,7 +8627,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>58</v>
       </c>
@@ -8629,7 +8641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>78</v>
       </c>
@@ -8643,7 +8655,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>6</v>
       </c>
@@ -8657,7 +8669,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>77</v>
       </c>
@@ -8671,7 +8683,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
@@ -8685,7 +8697,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>82</v>
       </c>
@@ -8699,7 +8711,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>73</v>
       </c>

--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2599BF4D-BB0C-424B-96D2-49120F07629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19908D3C-593A-4EBE-A310-6AA1F55A5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23490" yWindow="3990" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
+    <workbookView xWindow="-18480" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Largest_cities" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,12 +828,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,7 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8019,8 +8012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8088,7 +8081,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -8178,10 +8171,10 @@
       <c r="B11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8228,7 +8221,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8354,16 +8347,16 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8578,13 +8571,13 @@
       <c r="A39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -8603,7 +8596,7 @@
       <c r="A40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -8617,7 +8610,7 @@
       <c r="A41" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -8645,7 +8638,7 @@
       <c r="A43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -8673,7 +8666,7 @@
       <c r="A45" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -8687,7 +8680,7 @@
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -8701,7 +8694,7 @@
       <c r="A47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -8715,13 +8708,13 @@
       <c r="A48" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>214</v>
       </c>
     </row>
@@ -8729,7 +8722,7 @@
       <c r="A49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -8768,16 +8761,16 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>191</v>
       </c>
     </row>
@@ -8816,8 +8809,8 @@
       <c r="B55" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">

--- a/Data/Largest_Cities.xlsx
+++ b/Data/Largest_Cities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariko\Documents\GitHub\Capstone-DATS6501\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19908D3C-593A-4EBE-A310-6AA1F55A5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DEFEEB-DA7C-4F83-80D7-44ED41479198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18480" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
+    <workbookView xWindow="-22530" yWindow="4530" windowWidth="21600" windowHeight="11385" xr2:uid="{CFCFF21E-6815-4865-9DE0-0DADF51387DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Largest_cities" sheetId="1" r:id="rId1"/>
@@ -883,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -918,6 +918,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8012,8 +8013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6CE42B-7840-40D4-8D0E-7CFC8CB55E6A}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8056,7 +8057,7 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -8157,7 +8158,7 @@
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -8764,7 +8765,7 @@
       <c r="A52" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -8792,7 +8793,7 @@
       <c r="A54" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -8816,7 +8817,7 @@
       <c r="A56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -8830,7 +8831,7 @@
       <c r="A57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="6" t="s">
